--- a/src/main/resources/work-dir/vlk.xlsx
+++ b/src/main/resources/work-dir/vlk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\main\resources\work-dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1161F9-F1C0-49DF-B1D2-D9815B74A66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F7C65-50CB-4215-A0E2-229BA512A01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{30899D0E-9F83-45B7-944B-DE48874DD329}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -185,6 +185,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,7 +503,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +538,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I2" s="7">
@@ -567,11 +568,11 @@
         <v>89.75</v>
       </c>
       <c r="G3" s="1">
-        <f>F3/$G$1*$G$20</f>
+        <f t="shared" ref="G3:G19" si="0">F3/$G$1*$G$20</f>
         <v>228263.55983772819</v>
       </c>
       <c r="H3" s="1">
-        <f>G3*$H$2</f>
+        <f t="shared" ref="H3:H19" si="1">G3*$H$2</f>
         <v>2853.2944979716026</v>
       </c>
       <c r="I3" s="1"/>
@@ -597,11 +598,11 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <f>F4/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>43236.551724137928</v>
       </c>
       <c r="H4" s="1">
-        <f>G4*$H$2</f>
+        <f t="shared" si="1"/>
         <v>540.45689655172407</v>
       </c>
       <c r="I4" s="1"/>
@@ -627,11 +628,11 @@
         <v>31.5</v>
       </c>
       <c r="G5" s="1">
-        <f>F5/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>80114.787018255578</v>
       </c>
       <c r="H5" s="1">
-        <f>G5*$H$2</f>
+        <f t="shared" si="1"/>
         <v>1001.4348377281948</v>
       </c>
       <c r="I5" s="1"/>
@@ -657,11 +658,11 @@
         <v>242.5</v>
       </c>
       <c r="G6" s="1">
-        <f>F6/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>616756.69371196756</v>
       </c>
       <c r="H6" s="1">
-        <f>G6*$H$2</f>
+        <f t="shared" si="1"/>
         <v>7709.458671399595</v>
       </c>
       <c r="I6" s="1"/>
@@ -672,7 +673,7 @@
         <v>753</v>
       </c>
       <c r="B7" s="6">
-        <v>1220</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -687,11 +688,11 @@
         <v>42.5</v>
       </c>
       <c r="G7" s="1">
-        <f>F7/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>108091.37931034483</v>
       </c>
       <c r="H7" s="1">
-        <f>G7*$H$2</f>
+        <f t="shared" si="1"/>
         <v>1351.1422413793105</v>
       </c>
       <c r="I7" s="1"/>
@@ -717,11 +718,11 @@
         <v>173.5</v>
       </c>
       <c r="G8" s="1">
-        <f>F8/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>441267.16024340771</v>
       </c>
       <c r="H8" s="1">
-        <f>G8*$H$2</f>
+        <f t="shared" si="1"/>
         <v>5515.8395030425963</v>
       </c>
       <c r="I8" s="1"/>
@@ -747,11 +748,11 @@
         <v>217.5</v>
       </c>
       <c r="G9" s="1">
-        <f>F9/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>553173.5294117647</v>
       </c>
       <c r="H9" s="1">
-        <f>G9*$H$2</f>
+        <f t="shared" si="1"/>
         <v>6914.6691176470595</v>
       </c>
       <c r="I9" s="1"/>
@@ -777,11 +778,11 @@
         <v>80</v>
       </c>
       <c r="G10" s="1">
-        <f>F10/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>203466.12576064907</v>
       </c>
       <c r="H10" s="1">
-        <f>G10*$H$2</f>
+        <f t="shared" si="1"/>
         <v>2543.3265720081135</v>
       </c>
       <c r="I10" s="1"/>
@@ -807,11 +808,11 @@
         <v>88.5</v>
       </c>
       <c r="G11" s="1">
-        <f>F11/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>225084.40162271805</v>
       </c>
       <c r="H11" s="1">
-        <f>G11*$H$2</f>
+        <f t="shared" si="1"/>
         <v>2813.5550202839759</v>
       </c>
       <c r="I11" s="1"/>
@@ -837,11 +838,11 @@
         <v>88.5</v>
       </c>
       <c r="G12" s="1">
-        <f>F12/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>225084.40162271805</v>
       </c>
       <c r="H12" s="1">
-        <f>G12*$H$2</f>
+        <f t="shared" si="1"/>
         <v>2813.5550202839759</v>
       </c>
       <c r="I12" s="1"/>
@@ -867,11 +868,11 @@
         <v>97</v>
       </c>
       <c r="G13" s="1">
-        <f>F13/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>246702.67748478704</v>
       </c>
       <c r="H13" s="1">
-        <f>G13*$H$2</f>
+        <f t="shared" si="1"/>
         <v>3083.7834685598382</v>
       </c>
       <c r="I13" s="1"/>
@@ -897,11 +898,11 @@
         <v>59.5</v>
       </c>
       <c r="G14" s="1">
-        <f>F14/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>151327.93103448275</v>
       </c>
       <c r="H14" s="1">
-        <f>G14*$H$2</f>
+        <f t="shared" si="1"/>
         <v>1891.5991379310344</v>
       </c>
       <c r="I14" s="1"/>
@@ -927,11 +928,11 @@
         <v>63</v>
       </c>
       <c r="G15" s="1">
-        <f>F15/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>160229.57403651116</v>
       </c>
       <c r="H15" s="1">
-        <f>G15*$H$2</f>
+        <f t="shared" si="1"/>
         <v>2002.8696754563896</v>
       </c>
       <c r="I15" s="1"/>
@@ -957,11 +958,11 @@
         <v>48.5</v>
       </c>
       <c r="G16" s="1">
-        <f>F16/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>123351.33874239352</v>
       </c>
       <c r="H16" s="1">
-        <f>G16*$H$2</f>
+        <f t="shared" si="1"/>
         <v>1541.8917342799191</v>
       </c>
       <c r="I16" s="1"/>
@@ -987,11 +988,11 @@
         <v>37.5</v>
       </c>
       <c r="G17" s="1">
-        <f>F17/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>95374.746450304257</v>
       </c>
       <c r="H17" s="1">
-        <f>G17*$H$2</f>
+        <f t="shared" si="1"/>
         <v>1192.1843306288033</v>
       </c>
       <c r="I17" s="1"/>
@@ -1009,11 +1010,11 @@
         <v>63</v>
       </c>
       <c r="G18" s="1">
-        <f>F18/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>160229.57403651116</v>
       </c>
       <c r="H18" s="1">
-        <f>G18*$H$2</f>
+        <f t="shared" si="1"/>
         <v>2002.8696754563896</v>
       </c>
       <c r="I18" s="1"/>
@@ -1031,11 +1032,11 @@
         <v>162.5</v>
       </c>
       <c r="G19" s="1">
-        <f>F19/$G$1*$G$20</f>
+        <f t="shared" si="0"/>
         <v>413290.56795131846</v>
       </c>
       <c r="H19" s="1">
-        <f>G19*$H$2</f>
+        <f t="shared" si="1"/>
         <v>5166.1320993914815</v>
       </c>
       <c r="I19" s="1"/>
